--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="973" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -131,6 +131,102 @@
   </si>
   <si>
     <t xml:space="preserve">Difícil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear tabla Noticias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crear una tabla donde se guardaran los datos de la noticia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear tabla Liga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crear una tabla con los datos de cada liga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crea tabla Equipos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crear una tabla con los datos de cada equipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear tabla Jugadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crear una tabla con los datos de cada jugador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crea tabla Partidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crear una tabla con los datos de cada partido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generar Estadisticas jugadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tener una lista con estadisticas de jugadores según sus partidos (goles,partidos jugados…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tener un buscador para acceder rapidamente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear tabla Posts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">una tabla donde se almacenara los datos de cada entrada en el foro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear tabla Respuestas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">una tabla donde se almacenara los datos de cada respuesta en el post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear herramienta de tacticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">una herramienta de diseño para la creacion de tacticas y estrategias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear tabla Img Predefinidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">una tabla para almacenar imagenes como plantilla para la herramienta de diseño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear tabla Img Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">una tabla para guardar las imagenes como plantilla para cada usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear tabla Equipo Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donde se almacenar los datos de los equipos de los usuarios para compartir sus tacticas de forma privada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear tabla Miembro Equipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donde se guarda cada participante de cada equipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear Tabla Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tabla que almacena los datos de cada usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear atajos de teclaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">para acceder rapidamente a las distintas pestañas</t>
   </si>
 </sst>
 </file>
@@ -270,19 +366,19 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="54.1326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="53.4591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -424,6 +520,134 @@
       </c>
       <c r="G6" s="8" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -163,7 +163,7 @@
     <t xml:space="preserve">crear una tabla con los datos de cada partido</t>
   </si>
   <si>
-    <t xml:space="preserve">Generar Estadisticas jugadores</t>
+    <t xml:space="preserve">Tabla Detalles_Partido</t>
   </si>
   <si>
     <t xml:space="preserve">tener una lista con estadisticas de jugadores según sus partidos (goles,partidos jugados…)</t>
@@ -223,7 +223,7 @@
     <t xml:space="preserve">tabla que almacena los datos de cada usuario</t>
   </si>
   <si>
-    <t xml:space="preserve">Crear atajos de teclaro</t>
+    <t xml:space="preserve">Crear atajos de teclado</t>
   </si>
   <si>
     <t xml:space="preserve">para acceder rapidamente a las distintas pestañas</t>
@@ -366,19 +366,19 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="53.4591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="52.780612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="87">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -133,82 +133,136 @@
     <t xml:space="preserve">Difícil</t>
   </si>
   <si>
-    <t xml:space="preserve">Crear tabla Noticias </t>
-  </si>
-  <si>
-    <t xml:space="preserve">crear una tabla donde se guardaran los datos de la noticia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear tabla Liga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crear una tabla con los datos de cada liga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crea tabla Equipos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crear una tabla con los datos de cada equipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear tabla Jugadores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crear una tabla con los datos de cada jugador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crea tabla Partidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crear una tabla con los datos de cada partido</t>
+    <t xml:space="preserve">R06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla Noticias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">almacenar datos de noticias (titulo , descripción , fecha , autor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla Liga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">almacenar datos de cada liga (nombre,equipos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla Equipos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">almacenar datos de cada equipo (nombre,estadio,jugadores,liga)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla Jugadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">almacenar  datos de cada jugador (nombre,posicion,edad,equipo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla Partidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">almacenar datos de cada partido (fecha,equipo local,equipo visitante,detalles del partido)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
   </si>
   <si>
     <t xml:space="preserve">Tabla Detalles_Partido</t>
   </si>
   <si>
-    <t xml:space="preserve">tener una lista con estadisticas de jugadores según sus partidos (goles,partidos jugados…)</t>
+    <t xml:space="preserve">detalles del partido de cada jugador (goles,minutos  jugados, tarjetas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
   </si>
   <si>
     <t xml:space="preserve">Buscador</t>
   </si>
   <si>
-    <t xml:space="preserve">tener un buscador para acceder rapidamente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear tabla Posts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">una tabla donde se almacenara los datos de cada entrada en el foro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear tabla Respuestas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">una tabla donde se almacenara los datos de cada respuesta en el post</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear herramienta de tacticas</t>
+    <t xml:space="preserve">tener un buscador para acceder rapidamente a equipos , jugadores o ligas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla Posts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almacenara datos de cada entrada en el foro(autor,titulo,descripcion,fecha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla Respuestas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se almacenara los datos de cada respuesta en el post (autor,post,descripcion,fecha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla Posts-Equipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla Respuestas-Equipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herramienta de tacticas</t>
   </si>
   <si>
     <t xml:space="preserve">una herramienta de diseño para la creacion de tacticas y estrategias</t>
   </si>
   <si>
-    <t xml:space="preserve">Crear tabla Img Predefinidas</t>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla Img Predefinidas</t>
   </si>
   <si>
     <t xml:space="preserve">una tabla para almacenar imagenes como plantilla para la herramienta de diseño</t>
   </si>
   <si>
-    <t xml:space="preserve">Crear tabla Img Usuario</t>
+    <t xml:space="preserve">R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla Img Usuario</t>
   </si>
   <si>
     <t xml:space="preserve">una tabla para guardar las imagenes como plantilla para cada usuario</t>
   </si>
   <si>
-    <t xml:space="preserve">Crear tabla Equipo Usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donde se almacenar los datos de los equipos de los usuarios para compartir sus tacticas de forma privada</t>
+    <t xml:space="preserve">R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla Equipo Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">almacenara datos de los equipos creador por los usuarios (creador,nombre,miembros)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21</t>
   </si>
   <si>
     <t xml:space="preserve">Crear tabla Miembro Equipo</t>
@@ -217,10 +271,16 @@
     <t xml:space="preserve">donde se guarda cada participante de cada equipo</t>
   </si>
   <si>
+    <t xml:space="preserve">R22</t>
+  </si>
+  <si>
     <t xml:space="preserve">Crear Tabla Usuario</t>
   </si>
   <si>
     <t xml:space="preserve">tabla que almacena los datos de cada usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23</t>
   </si>
   <si>
     <t xml:space="preserve">Crear atajos de teclado</t>
@@ -364,21 +424,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="52.780612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="51.5663265306123"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -510,7 +570,7 @@
         <v>33</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>23</v>
@@ -523,134 +583,419 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>80</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="20">
     <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2" type="list">
@@ -669,7 +1014,7 @@
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D6" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D6:D24" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -689,7 +1034,7 @@
       <formula1>"Técnico,Funcional,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E6" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E6:E24" type="list">
       <formula1>"Técnico,Funcional,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="195">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -259,13 +259,73 @@
     <t xml:space="preserve">R22</t>
   </si>
   <si>
+    <t xml:space="preserve">Registrar Usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verificar usuario mediante correo electrónico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logear Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el usuario podrá iniciar sesión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deslogear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el usuario podrá cerrar la sesión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultar datos de usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">un usuario podrá ver sus datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar datos de usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">un usuario podrá cambiar sus datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darse de baja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">los usuarios podrán darse de baja de la web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R29</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ver Ligas</t>
   </si>
   <si>
     <t xml:space="preserve">Un visitante podrá ver la información sobre las ligas</t>
   </si>
   <si>
-    <t xml:space="preserve">R23</t>
+    <t xml:space="preserve">R30</t>
   </si>
   <si>
     <t xml:space="preserve">Ver Equipos</t>
@@ -274,7 +334,7 @@
     <t xml:space="preserve">Un visitante podrá ver la información sobre los equipos y sus jugadores</t>
   </si>
   <si>
-    <t xml:space="preserve">R24</t>
+    <t xml:space="preserve">R31</t>
   </si>
   <si>
     <t xml:space="preserve">Ver Horario de Partidos</t>
@@ -283,7 +343,7 @@
     <t xml:space="preserve">Los visitantes podrán ver un calendario con fecha y hora de los partidos</t>
   </si>
   <si>
-    <t xml:space="preserve">R25</t>
+    <t xml:space="preserve">R32</t>
   </si>
   <si>
     <t xml:space="preserve">Ver Detalles del partido</t>
@@ -292,7 +352,7 @@
     <t xml:space="preserve">Los visitantes podrán obtener información mas detallada del partido</t>
   </si>
   <si>
-    <t xml:space="preserve">R26</t>
+    <t xml:space="preserve">R33</t>
   </si>
   <si>
     <t xml:space="preserve">Comentar Partidos</t>
@@ -301,7 +361,7 @@
     <t xml:space="preserve">Los usuarios podrán comentar los partidos</t>
   </si>
   <si>
-    <t xml:space="preserve">R27</t>
+    <t xml:space="preserve">R34</t>
   </si>
   <si>
     <t xml:space="preserve">Acceder al foro</t>
@@ -310,7 +370,7 @@
     <t xml:space="preserve">Los visitantes podrán acceder al foro y leer sus entradas</t>
   </si>
   <si>
-    <t xml:space="preserve">R28</t>
+    <t xml:space="preserve">R35</t>
   </si>
   <si>
     <t xml:space="preserve">Crear entrada</t>
@@ -319,7 +379,7 @@
     <t xml:space="preserve">Los usuarios podrán añadir entradas al foro</t>
   </si>
   <si>
-    <t xml:space="preserve">R29</t>
+    <t xml:space="preserve">R36</t>
   </si>
   <si>
     <t xml:space="preserve">Responder a entradas</t>
@@ -328,7 +388,7 @@
     <t xml:space="preserve">Los usuarios podrán responder a entradas del foro</t>
   </si>
   <si>
-    <t xml:space="preserve">R30</t>
+    <t xml:space="preserve">R37</t>
   </si>
   <si>
     <t xml:space="preserve">Valorar entradas</t>
@@ -340,7 +400,7 @@
     <t xml:space="preserve">Opcional</t>
   </si>
   <si>
-    <t xml:space="preserve">R31</t>
+    <t xml:space="preserve">R38</t>
   </si>
   <si>
     <t xml:space="preserve">Añadir img a su plantilla</t>
@@ -349,7 +409,7 @@
     <t xml:space="preserve">Los usuarios podrán añadir imágenes para su plantilla </t>
   </si>
   <si>
-    <t xml:space="preserve">R32</t>
+    <t xml:space="preserve">R39</t>
   </si>
   <si>
     <t xml:space="preserve">Crear Equipos</t>
@@ -358,7 +418,7 @@
     <t xml:space="preserve">Los usuarios podrán crear sus propios equipos</t>
   </si>
   <si>
-    <t xml:space="preserve">R33</t>
+    <t xml:space="preserve">R40</t>
   </si>
   <si>
     <t xml:space="preserve">Añadir miembros</t>
@@ -367,7 +427,7 @@
     <t xml:space="preserve">Los usuarios podrán añadir miembros a sus equipos</t>
   </si>
   <si>
-    <t xml:space="preserve">R34</t>
+    <t xml:space="preserve">R41</t>
   </si>
   <si>
     <t xml:space="preserve">Eliminar miembros</t>
@@ -376,7 +436,7 @@
     <t xml:space="preserve">Los usuarios podrán eliminar miembros de sus equipos</t>
   </si>
   <si>
-    <t xml:space="preserve">R35</t>
+    <t xml:space="preserve">R42</t>
   </si>
   <si>
     <t xml:space="preserve">Aceptar equipos</t>
@@ -385,7 +445,7 @@
     <t xml:space="preserve">Los usuarios podrán aceptar o no su entrada a equipos</t>
   </si>
   <si>
-    <t xml:space="preserve">R36</t>
+    <t xml:space="preserve">R43</t>
   </si>
   <si>
     <t xml:space="preserve">Acceder al foro del equipo</t>
@@ -394,7 +454,7 @@
     <t xml:space="preserve">Los miembros de un equipo podrán acceder a su propio foro ,crear entradas y  responder a entradas</t>
   </si>
   <si>
-    <t xml:space="preserve">R37</t>
+    <t xml:space="preserve">R44</t>
   </si>
   <si>
     <t xml:space="preserve">Notificar un error</t>
@@ -403,7 +463,7 @@
     <t xml:space="preserve">En cualquier momento , los visitantes podrán enviar un correo explicando el supuesto error</t>
   </si>
   <si>
-    <t xml:space="preserve">R38</t>
+    <t xml:space="preserve">R45</t>
   </si>
   <si>
     <t xml:space="preserve">Validación de los formulario</t>
@@ -412,118 +472,136 @@
     <t xml:space="preserve">Mínimo</t>
   </si>
   <si>
-    <t xml:space="preserve">R39</t>
+    <t xml:space="preserve">R46</t>
   </si>
   <si>
     <t xml:space="preserve">Gestión de ventanas</t>
   </si>
   <si>
-    <t xml:space="preserve">R40</t>
+    <t xml:space="preserve">R47</t>
   </si>
   <si>
     <t xml:space="preserve">Manejo de eventos</t>
   </si>
   <si>
-    <t xml:space="preserve">R41</t>
+    <t xml:space="preserve">Técnico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R48</t>
   </si>
   <si>
     <t xml:space="preserve">Manipulación del DOM</t>
   </si>
   <si>
-    <t xml:space="preserve">R42</t>
+    <t xml:space="preserve">R49</t>
   </si>
   <si>
     <t xml:space="preserve">Mecanismo de almacenamiento</t>
   </si>
   <si>
-    <t xml:space="preserve">R43</t>
+    <t xml:space="preserve">R50</t>
   </si>
   <si>
     <t xml:space="preserve">jQuery</t>
   </si>
   <si>
-    <t xml:space="preserve">R44</t>
+    <t xml:space="preserve">R51</t>
   </si>
   <si>
     <t xml:space="preserve">Plugin no utilizado en clase</t>
   </si>
   <si>
-    <t xml:space="preserve">R45</t>
+    <t xml:space="preserve">R52</t>
   </si>
   <si>
     <t xml:space="preserve">Ajax</t>
   </si>
   <si>
-    <t xml:space="preserve">R46</t>
+    <t xml:space="preserve">R53</t>
   </si>
   <si>
     <t xml:space="preserve">PHP 7.1</t>
   </si>
   <si>
-    <t xml:space="preserve">R47</t>
+    <t xml:space="preserve">R54</t>
   </si>
   <si>
     <t xml:space="preserve">Yii2</t>
   </si>
   <si>
-    <t xml:space="preserve">R48</t>
+    <t xml:space="preserve">R55</t>
   </si>
   <si>
     <t xml:space="preserve">PostgreSQL 9.6 o superior</t>
   </si>
   <si>
-    <t xml:space="preserve">R49</t>
+    <t xml:space="preserve">R56</t>
   </si>
   <si>
     <t xml:space="preserve">Despliegue en Heroku</t>
   </si>
   <si>
-    <t xml:space="preserve">R50</t>
+    <t xml:space="preserve">R57</t>
   </si>
   <si>
     <t xml:space="preserve">Codeception</t>
   </si>
   <si>
-    <t xml:space="preserve">R51</t>
+    <t xml:space="preserve">R58</t>
   </si>
   <si>
     <t xml:space="preserve">Code Climate</t>
   </si>
   <si>
-    <t xml:space="preserve">R52</t>
+    <t xml:space="preserve">R59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación debe ser escalable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se utilizaran etiquetas HTML5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existirán transiciones,transformaciones, animaciones y contenido multimedia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R62</t>
   </si>
   <si>
     <t xml:space="preserve">Validador para HTML5 y CSS3</t>
   </si>
   <si>
-    <t xml:space="preserve">V3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R53</t>
+    <t xml:space="preserve">R63</t>
   </si>
   <si>
     <t xml:space="preserve">Accesibilidad AA</t>
   </si>
   <si>
-    <t xml:space="preserve">R54</t>
+    <t xml:space="preserve">R64</t>
   </si>
   <si>
     <t xml:space="preserve">Prueba del seis</t>
   </si>
   <si>
-    <t xml:space="preserve">R55</t>
+    <t xml:space="preserve">R65</t>
   </si>
   <si>
     <t xml:space="preserve">Uso de microdatos</t>
   </si>
   <si>
-    <t xml:space="preserve">R56</t>
+    <t xml:space="preserve">R66</t>
   </si>
   <si>
     <t xml:space="preserve">Despliegue en Host</t>
   </si>
   <si>
-    <t xml:space="preserve">R57</t>
+    <t xml:space="preserve">R67</t>
   </si>
   <si>
     <t xml:space="preserve">Despliegue en local</t>
@@ -664,21 +742,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="50.8928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="10.3061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="9.85204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -707,7 +785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -730,7 +808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -753,7 +831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -776,7 +854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -799,7 +877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -822,7 +900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -845,7 +923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -868,7 +946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -891,7 +969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -914,7 +992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -937,7 +1015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -960,7 +1038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -983,7 +1061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1006,7 +1084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -1029,7 +1107,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -1052,7 +1130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1075,7 +1153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -1098,7 +1176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -1121,7 +1199,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -1144,7 +1222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -1167,7 +1245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
@@ -1197,238 +1275,235 @@
       <c r="B23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="G30" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>11</v>
@@ -1443,15 +1518,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>11</v>
@@ -1466,15 +1541,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>11</v>
@@ -1489,15 +1564,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>11</v>
@@ -1512,41 +1587,41 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="D37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="D38" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>34</v>
@@ -1558,35 +1633,41 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>34</v>
@@ -1598,15 +1679,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="C41" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="D41" s="4" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>34</v>
@@ -1615,321 +1699,267 @@
         <v>13</v>
       </c>
       <c r="G41" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="4" t="s">
+    <row r="45" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>68</v>
@@ -1937,22 +1967,160 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>68</v>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
